--- a/Upload/TAR form online issues.xlsx
+++ b/Upload/TAR form online issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatt.nguyen.HTPVTG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612C07B-9E01-4577-BC25-2023EB2E35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDD59A9-B870-414E-8DD4-CB723F365F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="11940" xr2:uid="{ED043493-A0EF-4A09-A368-7A1CAE1A8329}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>TAR FORM TESTING ADJUSTMENT</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Sau khi adjust status thì quay trở lại luồng mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa phần load image nhân viên </t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,9 +343,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -354,6 +354,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,7 +378,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,8 +770,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +852,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -897,11 +903,11 @@
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H11" t="s">
@@ -918,13 +924,13 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H12" t="s">
@@ -941,13 +947,13 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H13" t="s">
@@ -966,7 +972,7 @@
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H14" t="s">
@@ -977,19 +983,19 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1005,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H16" t="s">
@@ -1022,11 +1028,11 @@
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1036,10 +1042,13 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="1"/>
+      <c r="G18" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -1047,7 +1056,7 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1"/>
@@ -1072,7 +1081,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
